--- a/datasets/november.xlsx
+++ b/datasets/november.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documents\GitHub\VisualAnalytics\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FF9C34-1B34-4281-AAAB-9880053F6D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F5B77A-9079-4031-B6F2-A1A4DDE9FF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6412" uniqueCount="2392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6660" uniqueCount="2393">
   <si>
     <t>s.no</t>
   </si>
@@ -7196,6 +7196,9 @@
   </si>
   <si>
     <t>month</t>
+  </si>
+  <si>
+    <t>Mixed</t>
   </si>
 </sst>
 </file>
@@ -8039,7 +8042,7 @@
   <dimension ref="A1:J830"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8278,6 +8281,9 @@
       <c r="C8" t="s">
         <v>53</v>
       </c>
+      <c r="D8" t="s">
+        <v>2392</v>
+      </c>
       <c r="E8" t="s">
         <v>54</v>
       </c>
@@ -8307,6 +8313,9 @@
       <c r="C9" t="s">
         <v>56</v>
       </c>
+      <c r="D9" t="s">
+        <v>2392</v>
+      </c>
       <c r="E9" t="s">
         <v>57</v>
       </c>
@@ -8464,6 +8473,9 @@
       <c r="C14" t="s">
         <v>82</v>
       </c>
+      <c r="D14" t="s">
+        <v>2392</v>
+      </c>
       <c r="E14" t="s">
         <v>83</v>
       </c>
@@ -8589,6 +8601,9 @@
       <c r="C18" t="s">
         <v>101</v>
       </c>
+      <c r="D18" t="s">
+        <v>2392</v>
+      </c>
       <c r="E18" t="s">
         <v>102</v>
       </c>
@@ -8906,6 +8921,9 @@
       <c r="C28" t="s">
         <v>147</v>
       </c>
+      <c r="D28" t="s">
+        <v>2392</v>
+      </c>
       <c r="E28" t="s">
         <v>148</v>
       </c>
@@ -8935,6 +8953,9 @@
       <c r="C29" t="s">
         <v>151</v>
       </c>
+      <c r="D29" t="s">
+        <v>2392</v>
+      </c>
       <c r="E29" t="s">
         <v>152</v>
       </c>
@@ -9028,6 +9049,9 @@
       <c r="C32" t="s">
         <v>165</v>
       </c>
+      <c r="D32" t="s">
+        <v>2392</v>
+      </c>
       <c r="E32" t="s">
         <v>166</v>
       </c>
@@ -9121,6 +9145,9 @@
       <c r="C35" t="s">
         <v>182</v>
       </c>
+      <c r="D35" t="s">
+        <v>2392</v>
+      </c>
       <c r="E35" t="s">
         <v>183</v>
       </c>
@@ -9150,6 +9177,9 @@
       <c r="C36" t="s">
         <v>187</v>
       </c>
+      <c r="D36" t="s">
+        <v>2392</v>
+      </c>
       <c r="E36" t="s">
         <v>188</v>
       </c>
@@ -9211,6 +9241,9 @@
       <c r="C38" t="s">
         <v>199</v>
       </c>
+      <c r="D38" t="s">
+        <v>2392</v>
+      </c>
       <c r="E38" t="s">
         <v>200</v>
       </c>
@@ -9304,6 +9337,9 @@
       <c r="C41" t="s">
         <v>215</v>
       </c>
+      <c r="D41" t="s">
+        <v>2392</v>
+      </c>
       <c r="E41" t="s">
         <v>210</v>
       </c>
@@ -9365,6 +9401,9 @@
       <c r="C43" t="s">
         <v>222</v>
       </c>
+      <c r="D43" t="s">
+        <v>2392</v>
+      </c>
       <c r="E43" t="s">
         <v>223</v>
       </c>
@@ -9458,6 +9497,9 @@
       <c r="C46" t="s">
         <v>234</v>
       </c>
+      <c r="D46" t="s">
+        <v>2392</v>
+      </c>
       <c r="E46" t="s">
         <v>235</v>
       </c>
@@ -9551,6 +9593,9 @@
       <c r="C49" t="s">
         <v>251</v>
       </c>
+      <c r="D49" t="s">
+        <v>2392</v>
+      </c>
       <c r="E49" t="s">
         <v>252</v>
       </c>
@@ -9612,6 +9657,9 @@
       <c r="C51" t="s">
         <v>261</v>
       </c>
+      <c r="D51" t="s">
+        <v>2392</v>
+      </c>
       <c r="E51" t="s">
         <v>258</v>
       </c>
@@ -9641,6 +9689,9 @@
       <c r="C52" t="s">
         <v>263</v>
       </c>
+      <c r="D52" t="s">
+        <v>2392</v>
+      </c>
       <c r="E52" t="s">
         <v>264</v>
       </c>
@@ -9734,6 +9785,9 @@
       <c r="C55" t="s">
         <v>276</v>
       </c>
+      <c r="D55" t="s">
+        <v>2392</v>
+      </c>
       <c r="E55" t="s">
         <v>277</v>
       </c>
@@ -9795,6 +9849,9 @@
       <c r="C57" t="s">
         <v>283</v>
       </c>
+      <c r="D57" t="s">
+        <v>2392</v>
+      </c>
       <c r="E57" t="s">
         <v>284</v>
       </c>
@@ -9824,6 +9881,9 @@
       <c r="C58" t="s">
         <v>287</v>
       </c>
+      <c r="D58" t="s">
+        <v>2392</v>
+      </c>
       <c r="E58" t="s">
         <v>288</v>
       </c>
@@ -9853,6 +9913,9 @@
       <c r="C59" t="s">
         <v>291</v>
       </c>
+      <c r="D59" t="s">
+        <v>2392</v>
+      </c>
       <c r="E59" t="s">
         <v>292</v>
       </c>
@@ -9914,6 +9977,9 @@
       <c r="C61" t="s">
         <v>297</v>
       </c>
+      <c r="D61" t="s">
+        <v>2392</v>
+      </c>
       <c r="E61" t="s">
         <v>292</v>
       </c>
@@ -9975,6 +10041,9 @@
       <c r="C63" t="s">
         <v>303</v>
       </c>
+      <c r="D63" t="s">
+        <v>2392</v>
+      </c>
       <c r="E63" t="s">
         <v>292</v>
       </c>
@@ -10196,6 +10265,9 @@
       <c r="C70" t="s">
         <v>326</v>
       </c>
+      <c r="D70" t="s">
+        <v>2392</v>
+      </c>
       <c r="E70" t="s">
         <v>327</v>
       </c>
@@ -10257,6 +10329,9 @@
       <c r="C72" t="s">
         <v>335</v>
       </c>
+      <c r="D72" t="s">
+        <v>2392</v>
+      </c>
       <c r="E72" t="s">
         <v>336</v>
       </c>
@@ -10286,6 +10361,9 @@
       <c r="C73" t="s">
         <v>339</v>
       </c>
+      <c r="D73" t="s">
+        <v>2392</v>
+      </c>
       <c r="E73" t="s">
         <v>340</v>
       </c>
@@ -10347,6 +10425,9 @@
       <c r="C75" t="s">
         <v>347</v>
       </c>
+      <c r="D75" t="s">
+        <v>2392</v>
+      </c>
       <c r="E75" t="s">
         <v>348</v>
       </c>
@@ -10376,6 +10457,9 @@
       <c r="C76" t="s">
         <v>351</v>
       </c>
+      <c r="D76" t="s">
+        <v>2392</v>
+      </c>
       <c r="E76" t="s">
         <v>348</v>
       </c>
@@ -10405,6 +10489,9 @@
       <c r="C77" t="s">
         <v>354</v>
       </c>
+      <c r="D77" t="s">
+        <v>2392</v>
+      </c>
       <c r="E77" t="s">
         <v>348</v>
       </c>
@@ -10786,6 +10873,9 @@
       <c r="C89" t="s">
         <v>404</v>
       </c>
+      <c r="D89" t="s">
+        <v>2392</v>
+      </c>
       <c r="E89" t="s">
         <v>405</v>
       </c>
@@ -10911,6 +11001,9 @@
       <c r="C93" t="s">
         <v>422</v>
       </c>
+      <c r="D93" t="s">
+        <v>2392</v>
+      </c>
       <c r="E93" t="s">
         <v>423</v>
       </c>
@@ -11004,6 +11097,9 @@
       <c r="C96" t="s">
         <v>430</v>
       </c>
+      <c r="D96" t="s">
+        <v>2392</v>
+      </c>
       <c r="E96" t="s">
         <v>431</v>
       </c>
@@ -11065,6 +11161,9 @@
       <c r="C98" t="s">
         <v>439</v>
       </c>
+      <c r="D98" t="s">
+        <v>2392</v>
+      </c>
       <c r="E98" t="s">
         <v>435</v>
       </c>
@@ -11094,6 +11193,9 @@
       <c r="C99" t="s">
         <v>441</v>
       </c>
+      <c r="D99" t="s">
+        <v>2392</v>
+      </c>
       <c r="E99" t="s">
         <v>435</v>
       </c>
@@ -11123,6 +11225,9 @@
       <c r="C100" t="s">
         <v>446</v>
       </c>
+      <c r="D100" t="s">
+        <v>2392</v>
+      </c>
       <c r="E100" t="s">
         <v>447</v>
       </c>
@@ -11216,6 +11321,9 @@
       <c r="C103" t="s">
         <v>457</v>
       </c>
+      <c r="D103" t="s">
+        <v>2392</v>
+      </c>
       <c r="E103" t="s">
         <v>456</v>
       </c>
@@ -11405,6 +11513,9 @@
       <c r="C109" t="s">
         <v>486</v>
       </c>
+      <c r="D109" t="s">
+        <v>2392</v>
+      </c>
       <c r="E109" t="s">
         <v>484</v>
       </c>
@@ -11626,6 +11737,9 @@
       <c r="C116" t="s">
         <v>515</v>
       </c>
+      <c r="D116" t="s">
+        <v>2392</v>
+      </c>
       <c r="E116" t="s">
         <v>511</v>
       </c>
@@ -11687,6 +11801,9 @@
       <c r="C118" t="s">
         <v>520</v>
       </c>
+      <c r="D118" t="s">
+        <v>2392</v>
+      </c>
       <c r="E118" t="s">
         <v>521</v>
       </c>
@@ -11972,6 +12089,9 @@
       <c r="C127" t="s">
         <v>552</v>
       </c>
+      <c r="D127" t="s">
+        <v>2392</v>
+      </c>
       <c r="E127" t="s">
         <v>553</v>
       </c>
@@ -12033,6 +12153,9 @@
       <c r="C129" t="s">
         <v>559</v>
       </c>
+      <c r="D129" t="s">
+        <v>2392</v>
+      </c>
       <c r="E129" t="s">
         <v>560</v>
       </c>
@@ -12126,6 +12249,9 @@
       <c r="C132" t="s">
         <v>571</v>
       </c>
+      <c r="D132" t="s">
+        <v>2392</v>
+      </c>
       <c r="E132" t="s">
         <v>572</v>
       </c>
@@ -12379,6 +12505,9 @@
       <c r="C140" t="s">
         <v>604</v>
       </c>
+      <c r="D140" t="s">
+        <v>2392</v>
+      </c>
       <c r="E140" t="s">
         <v>601</v>
       </c>
@@ -12408,6 +12537,9 @@
       <c r="C141" t="s">
         <v>605</v>
       </c>
+      <c r="D141" t="s">
+        <v>2392</v>
+      </c>
       <c r="E141" t="s">
         <v>606</v>
       </c>
@@ -12693,6 +12825,9 @@
       <c r="C150" t="s">
         <v>635</v>
       </c>
+      <c r="D150" t="s">
+        <v>2392</v>
+      </c>
       <c r="E150" t="s">
         <v>624</v>
       </c>
@@ -12818,6 +12953,9 @@
       <c r="C154" t="s">
         <v>651</v>
       </c>
+      <c r="D154" t="s">
+        <v>2392</v>
+      </c>
       <c r="E154" t="s">
         <v>648</v>
       </c>
@@ -12879,6 +13017,9 @@
       <c r="C156" t="s">
         <v>658</v>
       </c>
+      <c r="D156" t="s">
+        <v>2392</v>
+      </c>
       <c r="E156" t="s">
         <v>648</v>
       </c>
@@ -12908,6 +13049,9 @@
       <c r="C157" t="s">
         <v>662</v>
       </c>
+      <c r="D157" t="s">
+        <v>2392</v>
+      </c>
       <c r="E157" t="s">
         <v>663</v>
       </c>
@@ -13001,6 +13145,9 @@
       <c r="C160" t="s">
         <v>670</v>
       </c>
+      <c r="D160" t="s">
+        <v>2392</v>
+      </c>
       <c r="E160" t="s">
         <v>671</v>
       </c>
@@ -13030,6 +13177,9 @@
       <c r="C161" t="s">
         <v>676</v>
       </c>
+      <c r="D161" t="s">
+        <v>2392</v>
+      </c>
       <c r="E161" t="s">
         <v>674</v>
       </c>
@@ -13059,6 +13209,9 @@
       <c r="C162" t="s">
         <v>678</v>
       </c>
+      <c r="D162" t="s">
+        <v>2392</v>
+      </c>
       <c r="E162" t="s">
         <v>674</v>
       </c>
@@ -13152,6 +13305,9 @@
       <c r="C165" t="s">
         <v>689</v>
       </c>
+      <c r="D165" t="s">
+        <v>2392</v>
+      </c>
       <c r="E165" t="s">
         <v>686</v>
       </c>
@@ -13341,6 +13497,9 @@
       <c r="C171" t="s">
         <v>709</v>
       </c>
+      <c r="D171" t="s">
+        <v>2392</v>
+      </c>
       <c r="E171" t="s">
         <v>706</v>
       </c>
@@ -13562,6 +13721,9 @@
       <c r="C178" t="s">
         <v>730</v>
       </c>
+      <c r="D178" t="s">
+        <v>2392</v>
+      </c>
       <c r="E178" t="s">
         <v>731</v>
       </c>
@@ -13623,6 +13785,9 @@
       <c r="C180" t="s">
         <v>735</v>
       </c>
+      <c r="D180" t="s">
+        <v>2392</v>
+      </c>
       <c r="E180" t="s">
         <v>736</v>
       </c>
@@ -13652,6 +13817,9 @@
       <c r="C181" t="s">
         <v>739</v>
       </c>
+      <c r="D181" t="s">
+        <v>2392</v>
+      </c>
       <c r="E181" t="s">
         <v>736</v>
       </c>
@@ -13809,6 +13977,9 @@
       <c r="C186" t="s">
         <v>755</v>
       </c>
+      <c r="D186" t="s">
+        <v>2392</v>
+      </c>
       <c r="E186" t="s">
         <v>756</v>
       </c>
@@ -13966,6 +14137,9 @@
       <c r="C191" t="s">
         <v>772</v>
       </c>
+      <c r="D191" t="s">
+        <v>2392</v>
+      </c>
       <c r="E191" t="s">
         <v>767</v>
       </c>
@@ -13995,6 +14169,9 @@
       <c r="C192" t="s">
         <v>777</v>
       </c>
+      <c r="D192" t="s">
+        <v>2392</v>
+      </c>
       <c r="E192" t="s">
         <v>767</v>
       </c>
@@ -14152,6 +14329,9 @@
       <c r="C197" t="s">
         <v>794</v>
       </c>
+      <c r="D197" t="s">
+        <v>2392</v>
+      </c>
       <c r="E197" t="s">
         <v>786</v>
       </c>
@@ -14245,6 +14425,9 @@
       <c r="C200" t="s">
         <v>803</v>
       </c>
+      <c r="D200" t="s">
+        <v>2392</v>
+      </c>
       <c r="E200" t="s">
         <v>804</v>
       </c>
@@ -14306,6 +14489,9 @@
       <c r="C202" t="s">
         <v>809</v>
       </c>
+      <c r="D202" t="s">
+        <v>2392</v>
+      </c>
       <c r="E202" t="s">
         <v>804</v>
       </c>
@@ -14431,6 +14617,9 @@
       <c r="C206" t="s">
         <v>823</v>
       </c>
+      <c r="D206" t="s">
+        <v>2392</v>
+      </c>
       <c r="E206" t="s">
         <v>815</v>
       </c>
@@ -14492,6 +14681,9 @@
       <c r="C208" t="s">
         <v>828</v>
       </c>
+      <c r="D208" t="s">
+        <v>2392</v>
+      </c>
       <c r="E208" t="s">
         <v>829</v>
       </c>
@@ -14553,6 +14745,9 @@
       <c r="C210" t="s">
         <v>837</v>
       </c>
+      <c r="D210" t="s">
+        <v>2392</v>
+      </c>
       <c r="E210" t="s">
         <v>832</v>
       </c>
@@ -14582,6 +14777,9 @@
       <c r="C211" t="s">
         <v>840</v>
       </c>
+      <c r="D211" t="s">
+        <v>2392</v>
+      </c>
       <c r="E211" t="s">
         <v>832</v>
       </c>
@@ -14867,6 +15065,9 @@
       <c r="C220" t="s">
         <v>868</v>
       </c>
+      <c r="D220" t="s">
+        <v>2392</v>
+      </c>
       <c r="E220" t="s">
         <v>869</v>
       </c>
@@ -14896,6 +15097,9 @@
       <c r="C221" t="s">
         <v>871</v>
       </c>
+      <c r="D221" t="s">
+        <v>2392</v>
+      </c>
       <c r="E221" t="s">
         <v>869</v>
       </c>
@@ -15053,6 +15257,9 @@
       <c r="C226" t="s">
         <v>886</v>
       </c>
+      <c r="D226" t="s">
+        <v>2392</v>
+      </c>
       <c r="E226" t="s">
         <v>884</v>
       </c>
@@ -15114,6 +15321,9 @@
       <c r="C228" t="s">
         <v>891</v>
       </c>
+      <c r="D228" t="s">
+        <v>2392</v>
+      </c>
       <c r="E228" t="s">
         <v>892</v>
       </c>
@@ -15175,6 +15385,9 @@
       <c r="C230" t="s">
         <v>897</v>
       </c>
+      <c r="D230" t="s">
+        <v>2392</v>
+      </c>
       <c r="E230" t="s">
         <v>892</v>
       </c>
@@ -15364,6 +15577,9 @@
       <c r="C236" t="s">
         <v>916</v>
       </c>
+      <c r="D236" t="s">
+        <v>2392</v>
+      </c>
       <c r="E236" t="s">
         <v>917</v>
       </c>
@@ -15425,6 +15641,9 @@
       <c r="C238" t="s">
         <v>922</v>
       </c>
+      <c r="D238" t="s">
+        <v>2392</v>
+      </c>
       <c r="E238" t="s">
         <v>917</v>
       </c>
@@ -15518,6 +15737,9 @@
       <c r="C241" t="s">
         <v>931</v>
       </c>
+      <c r="D241" t="s">
+        <v>2392</v>
+      </c>
       <c r="E241" t="s">
         <v>917</v>
       </c>
@@ -15579,6 +15801,9 @@
       <c r="C243" t="s">
         <v>936</v>
       </c>
+      <c r="D243" t="s">
+        <v>2392</v>
+      </c>
       <c r="E243" t="s">
         <v>933</v>
       </c>
@@ -15960,6 +16185,9 @@
       <c r="C255" t="s">
         <v>971</v>
       </c>
+      <c r="D255" t="s">
+        <v>2392</v>
+      </c>
       <c r="E255" t="s">
         <v>965</v>
       </c>
@@ -16085,6 +16313,9 @@
       <c r="C259" t="s">
         <v>984</v>
       </c>
+      <c r="D259" t="s">
+        <v>2392</v>
+      </c>
       <c r="E259" t="s">
         <v>976</v>
       </c>
@@ -16306,6 +16537,9 @@
       <c r="C266" t="s">
         <v>1007</v>
       </c>
+      <c r="D266" t="s">
+        <v>2392</v>
+      </c>
       <c r="E266" t="s">
         <v>1004</v>
       </c>
@@ -16463,6 +16697,9 @@
       <c r="C271" t="s">
         <v>1019</v>
       </c>
+      <c r="D271" t="s">
+        <v>2392</v>
+      </c>
       <c r="E271" t="s">
         <v>1020</v>
       </c>
@@ -16588,6 +16825,9 @@
       <c r="C275" t="s">
         <v>1033</v>
       </c>
+      <c r="D275" t="s">
+        <v>2392</v>
+      </c>
       <c r="E275" t="s">
         <v>1020</v>
       </c>
@@ -16713,6 +16953,9 @@
       <c r="C279" t="s">
         <v>1046</v>
       </c>
+      <c r="D279" t="s">
+        <v>2392</v>
+      </c>
       <c r="E279" t="s">
         <v>1043</v>
       </c>
@@ -16742,6 +16985,9 @@
       <c r="C280" t="s">
         <v>1050</v>
       </c>
+      <c r="D280" t="s">
+        <v>2392</v>
+      </c>
       <c r="E280" t="s">
         <v>1051</v>
       </c>
@@ -16835,6 +17081,9 @@
       <c r="C283" t="s">
         <v>1060</v>
       </c>
+      <c r="D283" t="s">
+        <v>2392</v>
+      </c>
       <c r="E283" t="s">
         <v>1055</v>
       </c>
@@ -16992,6 +17241,9 @@
       <c r="C288" t="s">
         <v>1075</v>
       </c>
+      <c r="D288" t="s">
+        <v>2392</v>
+      </c>
       <c r="E288" t="s">
         <v>1071</v>
       </c>
@@ -17053,6 +17305,9 @@
       <c r="C290" t="s">
         <v>1080</v>
       </c>
+      <c r="D290" t="s">
+        <v>2392</v>
+      </c>
       <c r="E290" t="s">
         <v>1071</v>
       </c>
@@ -17114,6 +17369,9 @@
       <c r="C292" t="s">
         <v>1087</v>
       </c>
+      <c r="D292" t="s">
+        <v>2392</v>
+      </c>
       <c r="E292" t="s">
         <v>1071</v>
       </c>
@@ -17143,6 +17401,9 @@
       <c r="C293" t="s">
         <v>1089</v>
       </c>
+      <c r="D293" t="s">
+        <v>2392</v>
+      </c>
       <c r="E293" t="s">
         <v>1090</v>
       </c>
@@ -17172,6 +17433,9 @@
       <c r="C294" t="s">
         <v>1093</v>
       </c>
+      <c r="D294" t="s">
+        <v>2392</v>
+      </c>
       <c r="E294" t="s">
         <v>1094</v>
       </c>
@@ -17201,6 +17465,9 @@
       <c r="C295" t="s">
         <v>1096</v>
       </c>
+      <c r="D295" t="s">
+        <v>2392</v>
+      </c>
       <c r="E295" t="s">
         <v>1094</v>
       </c>
@@ -17230,6 +17497,9 @@
       <c r="C296" t="s">
         <v>1099</v>
       </c>
+      <c r="D296" t="s">
+        <v>2392</v>
+      </c>
       <c r="E296" t="s">
         <v>1094</v>
       </c>
@@ -17451,6 +17721,9 @@
       <c r="C303" t="s">
         <v>1121</v>
       </c>
+      <c r="D303" t="s">
+        <v>2392</v>
+      </c>
       <c r="E303" t="s">
         <v>1113</v>
       </c>
@@ -17480,6 +17753,9 @@
       <c r="C304" t="s">
         <v>1122</v>
       </c>
+      <c r="D304" t="s">
+        <v>2392</v>
+      </c>
       <c r="E304" t="s">
         <v>1113</v>
       </c>
@@ -17509,6 +17785,9 @@
       <c r="C305" t="s">
         <v>1125</v>
       </c>
+      <c r="D305" t="s">
+        <v>2392</v>
+      </c>
       <c r="E305" t="s">
         <v>1126</v>
       </c>
@@ -17570,6 +17849,9 @@
       <c r="C307" t="s">
         <v>1132</v>
       </c>
+      <c r="D307" t="s">
+        <v>2392</v>
+      </c>
       <c r="E307" t="s">
         <v>1133</v>
       </c>
@@ -17695,6 +17977,9 @@
       <c r="C311" t="s">
         <v>1145</v>
       </c>
+      <c r="D311" t="s">
+        <v>2392</v>
+      </c>
       <c r="E311" t="s">
         <v>1133</v>
       </c>
@@ -17788,6 +18073,9 @@
       <c r="C314" t="s">
         <v>1153</v>
       </c>
+      <c r="D314" t="s">
+        <v>2392</v>
+      </c>
       <c r="E314" t="s">
         <v>1149</v>
       </c>
@@ -17913,6 +18201,9 @@
       <c r="C318" t="s">
         <v>1163</v>
       </c>
+      <c r="D318" t="s">
+        <v>2392</v>
+      </c>
       <c r="E318" t="s">
         <v>1156</v>
       </c>
@@ -18102,6 +18393,9 @@
       <c r="C324" t="s">
         <v>1178</v>
       </c>
+      <c r="D324" t="s">
+        <v>2392</v>
+      </c>
       <c r="E324" t="s">
         <v>1156</v>
       </c>
@@ -18419,6 +18713,9 @@
       <c r="C334" t="s">
         <v>1206</v>
       </c>
+      <c r="D334" t="s">
+        <v>2392</v>
+      </c>
       <c r="E334" t="s">
         <v>1199</v>
       </c>
@@ -18512,6 +18809,9 @@
       <c r="C337" t="s">
         <v>1212</v>
       </c>
+      <c r="D337" t="s">
+        <v>2392</v>
+      </c>
       <c r="E337" t="s">
         <v>1213</v>
       </c>
@@ -18541,6 +18841,9 @@
       <c r="C338" t="s">
         <v>1215</v>
       </c>
+      <c r="D338" t="s">
+        <v>2392</v>
+      </c>
       <c r="E338" t="s">
         <v>1213</v>
       </c>
@@ -18602,6 +18905,9 @@
       <c r="C340" t="s">
         <v>1221</v>
       </c>
+      <c r="D340" t="s">
+        <v>2392</v>
+      </c>
       <c r="E340" t="s">
         <v>1219</v>
       </c>
@@ -18663,6 +18969,9 @@
       <c r="C342" t="s">
         <v>1224</v>
       </c>
+      <c r="D342" t="s">
+        <v>2392</v>
+      </c>
       <c r="E342" t="s">
         <v>1219</v>
       </c>
@@ -18820,6 +19129,9 @@
       <c r="C347" t="s">
         <v>1242</v>
       </c>
+      <c r="D347" t="s">
+        <v>2392</v>
+      </c>
       <c r="E347" t="s">
         <v>1235</v>
       </c>
@@ -18849,6 +19161,9 @@
       <c r="C348" t="s">
         <v>1243</v>
       </c>
+      <c r="D348" t="s">
+        <v>2392</v>
+      </c>
       <c r="E348" t="s">
         <v>1235</v>
       </c>
@@ -18974,6 +19289,9 @@
       <c r="C352" t="s">
         <v>1252</v>
       </c>
+      <c r="D352" t="s">
+        <v>2392</v>
+      </c>
       <c r="E352" t="s">
         <v>1253</v>
       </c>
@@ -19067,6 +19385,9 @@
       <c r="C355" t="s">
         <v>1260</v>
       </c>
+      <c r="D355" t="s">
+        <v>2392</v>
+      </c>
       <c r="E355" t="s">
         <v>1256</v>
       </c>
@@ -19096,6 +19417,9 @@
       <c r="C356" t="s">
         <v>1263</v>
       </c>
+      <c r="D356" t="s">
+        <v>2392</v>
+      </c>
       <c r="E356" t="s">
         <v>1256</v>
       </c>
@@ -19221,6 +19545,9 @@
       <c r="C360" t="s">
         <v>1270</v>
       </c>
+      <c r="D360" t="s">
+        <v>2392</v>
+      </c>
       <c r="E360" t="s">
         <v>1256</v>
       </c>
@@ -19378,6 +19705,9 @@
       <c r="C365" t="s">
         <v>1284</v>
       </c>
+      <c r="D365" t="s">
+        <v>2392</v>
+      </c>
       <c r="E365" t="s">
         <v>1282</v>
       </c>
@@ -19407,6 +19737,9 @@
       <c r="C366" t="s">
         <v>1286</v>
       </c>
+      <c r="D366" t="s">
+        <v>2392</v>
+      </c>
       <c r="E366" t="s">
         <v>1282</v>
       </c>
@@ -19564,6 +19897,9 @@
       <c r="C371" t="s">
         <v>1300</v>
       </c>
+      <c r="D371" t="s">
+        <v>2392</v>
+      </c>
       <c r="E371" t="s">
         <v>1290</v>
       </c>
@@ -19817,6 +20153,9 @@
       <c r="C379" t="s">
         <v>1323</v>
       </c>
+      <c r="D379" t="s">
+        <v>2392</v>
+      </c>
       <c r="E379" t="s">
         <v>1319</v>
       </c>
@@ -19910,6 +20249,9 @@
       <c r="C382" t="s">
         <v>1329</v>
       </c>
+      <c r="D382" t="s">
+        <v>2392</v>
+      </c>
       <c r="E382" t="s">
         <v>1319</v>
       </c>
@@ -20291,6 +20633,9 @@
       <c r="C394" t="s">
         <v>1355</v>
       </c>
+      <c r="D394" t="s">
+        <v>2392</v>
+      </c>
       <c r="E394" t="s">
         <v>241</v>
       </c>
@@ -20384,6 +20729,9 @@
       <c r="C397" t="s">
         <v>1361</v>
       </c>
+      <c r="D397" t="s">
+        <v>2392</v>
+      </c>
       <c r="E397" t="s">
         <v>1358</v>
       </c>
@@ -20445,6 +20793,9 @@
       <c r="C399" t="s">
         <v>1364</v>
       </c>
+      <c r="D399" t="s">
+        <v>2392</v>
+      </c>
       <c r="E399" t="s">
         <v>1358</v>
       </c>
@@ -20474,6 +20825,9 @@
       <c r="C400" t="s">
         <v>1366</v>
       </c>
+      <c r="D400" t="s">
+        <v>2392</v>
+      </c>
       <c r="E400" t="s">
         <v>1358</v>
       </c>
@@ -20503,6 +20857,9 @@
       <c r="C401" t="s">
         <v>1368</v>
       </c>
+      <c r="D401" t="s">
+        <v>2392</v>
+      </c>
       <c r="E401" t="s">
         <v>1358</v>
       </c>
@@ -20628,6 +20985,9 @@
       <c r="C405" t="s">
         <v>1379</v>
       </c>
+      <c r="D405" t="s">
+        <v>2392</v>
+      </c>
       <c r="E405" t="s">
         <v>1358</v>
       </c>
@@ -20657,6 +21017,9 @@
       <c r="C406" t="s">
         <v>1380</v>
       </c>
+      <c r="D406" t="s">
+        <v>2392</v>
+      </c>
       <c r="E406" t="s">
         <v>1358</v>
       </c>
@@ -20814,6 +21177,9 @@
       <c r="C411" t="s">
         <v>1391</v>
       </c>
+      <c r="D411" t="s">
+        <v>2392</v>
+      </c>
       <c r="E411" t="s">
         <v>1392</v>
       </c>
@@ -20843,6 +21209,9 @@
       <c r="C412" t="s">
         <v>1395</v>
       </c>
+      <c r="D412" t="s">
+        <v>2392</v>
+      </c>
       <c r="E412" t="s">
         <v>1392</v>
       </c>
@@ -20872,6 +21241,9 @@
       <c r="C413" t="s">
         <v>1398</v>
       </c>
+      <c r="D413" t="s">
+        <v>2392</v>
+      </c>
       <c r="E413" t="s">
         <v>1392</v>
       </c>
@@ -20933,6 +21305,9 @@
       <c r="C415" t="s">
         <v>1404</v>
       </c>
+      <c r="D415" t="s">
+        <v>2392</v>
+      </c>
       <c r="E415" t="s">
         <v>1401</v>
       </c>
@@ -21026,6 +21401,9 @@
       <c r="C418" t="s">
         <v>1411</v>
       </c>
+      <c r="D418" t="s">
+        <v>2392</v>
+      </c>
       <c r="E418" t="s">
         <v>1401</v>
       </c>
@@ -21087,6 +21465,9 @@
       <c r="C420" t="s">
         <v>1417</v>
       </c>
+      <c r="D420" t="s">
+        <v>2392</v>
+      </c>
       <c r="E420" t="s">
         <v>1418</v>
       </c>
@@ -21116,6 +21497,9 @@
       <c r="C421" t="s">
         <v>1421</v>
       </c>
+      <c r="D421" t="s">
+        <v>2392</v>
+      </c>
       <c r="E421" t="s">
         <v>1418</v>
       </c>
@@ -21145,6 +21529,9 @@
       <c r="C422" t="s">
         <v>1423</v>
       </c>
+      <c r="D422" t="s">
+        <v>2392</v>
+      </c>
       <c r="E422" t="s">
         <v>1418</v>
       </c>
@@ -21174,6 +21561,9 @@
       <c r="C423" t="s">
         <v>1425</v>
       </c>
+      <c r="D423" t="s">
+        <v>2392</v>
+      </c>
       <c r="E423" t="s">
         <v>1418</v>
       </c>
@@ -21459,6 +21849,9 @@
       <c r="C432" t="s">
         <v>1448</v>
       </c>
+      <c r="D432" t="s">
+        <v>2392</v>
+      </c>
       <c r="E432" t="s">
         <v>1428</v>
       </c>
@@ -21648,6 +22041,9 @@
       <c r="C438" t="s">
         <v>1463</v>
       </c>
+      <c r="D438" t="s">
+        <v>2392</v>
+      </c>
       <c r="E438" t="s">
         <v>1461</v>
       </c>
@@ -21677,6 +22073,9 @@
       <c r="C439" t="s">
         <v>1465</v>
       </c>
+      <c r="D439" t="s">
+        <v>2392</v>
+      </c>
       <c r="E439" t="s">
         <v>1461</v>
       </c>
@@ -21706,6 +22105,9 @@
       <c r="C440" t="s">
         <v>1467</v>
       </c>
+      <c r="D440" t="s">
+        <v>2392</v>
+      </c>
       <c r="E440" t="s">
         <v>1461</v>
       </c>
@@ -21831,6 +22233,9 @@
       <c r="C444" t="s">
         <v>1478</v>
       </c>
+      <c r="D444" t="s">
+        <v>2392</v>
+      </c>
       <c r="E444" t="s">
         <v>1471</v>
       </c>
@@ -21988,6 +22393,9 @@
       <c r="C449" t="s">
         <v>1494</v>
       </c>
+      <c r="D449" t="s">
+        <v>2392</v>
+      </c>
       <c r="E449" t="s">
         <v>1471</v>
       </c>
@@ -22049,6 +22457,9 @@
       <c r="C451" t="s">
         <v>1500</v>
       </c>
+      <c r="D451" t="s">
+        <v>2392</v>
+      </c>
       <c r="E451" t="s">
         <v>1501</v>
       </c>
@@ -22078,6 +22489,9 @@
       <c r="C452" t="s">
         <v>1504</v>
       </c>
+      <c r="D452" t="s">
+        <v>2392</v>
+      </c>
       <c r="E452" t="s">
         <v>1501</v>
       </c>
@@ -22331,6 +22745,9 @@
       <c r="C460" t="s">
         <v>1525</v>
       </c>
+      <c r="D460" t="s">
+        <v>2392</v>
+      </c>
       <c r="E460" t="s">
         <v>1513</v>
       </c>
@@ -22392,6 +22809,9 @@
       <c r="C462" t="s">
         <v>1531</v>
       </c>
+      <c r="D462" t="s">
+        <v>2392</v>
+      </c>
       <c r="E462" t="s">
         <v>1513</v>
       </c>
@@ -22549,6 +22969,9 @@
       <c r="C467" t="s">
         <v>1543</v>
       </c>
+      <c r="D467" t="s">
+        <v>2392</v>
+      </c>
       <c r="E467" t="s">
         <v>1538</v>
       </c>
@@ -22642,6 +23065,9 @@
       <c r="C470" t="s">
         <v>1550</v>
       </c>
+      <c r="D470" t="s">
+        <v>2392</v>
+      </c>
       <c r="E470" t="s">
         <v>1538</v>
       </c>
@@ -22671,6 +23097,9 @@
       <c r="C471" t="s">
         <v>1552</v>
       </c>
+      <c r="D471" t="s">
+        <v>2392</v>
+      </c>
       <c r="E471" t="s">
         <v>1538</v>
       </c>
@@ -22892,6 +23321,9 @@
       <c r="C478" t="s">
         <v>1569</v>
       </c>
+      <c r="D478" t="s">
+        <v>2392</v>
+      </c>
       <c r="E478" t="s">
         <v>1538</v>
       </c>
@@ -23017,6 +23449,9 @@
       <c r="C482" t="s">
         <v>1579</v>
       </c>
+      <c r="D482" t="s">
+        <v>2392</v>
+      </c>
       <c r="E482" t="s">
         <v>1572</v>
       </c>
@@ -23302,6 +23737,9 @@
       <c r="C491" t="s">
         <v>1597</v>
       </c>
+      <c r="D491" t="s">
+        <v>2392</v>
+      </c>
       <c r="E491" t="s">
         <v>1582</v>
       </c>
@@ -23331,6 +23769,9 @@
       <c r="C492" t="s">
         <v>1599</v>
       </c>
+      <c r="D492" t="s">
+        <v>2392</v>
+      </c>
       <c r="E492" t="s">
         <v>1600</v>
       </c>
@@ -23392,6 +23833,9 @@
       <c r="C494" t="s">
         <v>1605</v>
       </c>
+      <c r="D494" t="s">
+        <v>2392</v>
+      </c>
       <c r="E494" t="s">
         <v>1600</v>
       </c>
@@ -23421,6 +23865,9 @@
       <c r="C495" t="s">
         <v>1607</v>
       </c>
+      <c r="D495" t="s">
+        <v>2392</v>
+      </c>
       <c r="E495" t="s">
         <v>1600</v>
       </c>
@@ -23482,6 +23929,9 @@
       <c r="C497" t="s">
         <v>1615</v>
       </c>
+      <c r="D497" t="s">
+        <v>2392</v>
+      </c>
       <c r="E497" t="s">
         <v>1612</v>
       </c>
@@ -23991,6 +24441,9 @@
       <c r="C513" t="s">
         <v>1654</v>
       </c>
+      <c r="D513" t="s">
+        <v>2392</v>
+      </c>
       <c r="E513" t="s">
         <v>1645</v>
       </c>
@@ -24148,6 +24601,9 @@
       <c r="C518" t="s">
         <v>1667</v>
       </c>
+      <c r="D518" t="s">
+        <v>2392</v>
+      </c>
       <c r="E518" t="s">
         <v>1645</v>
       </c>
@@ -24369,6 +24825,9 @@
       <c r="C525" t="s">
         <v>1685</v>
       </c>
+      <c r="D525" t="s">
+        <v>2392</v>
+      </c>
       <c r="E525" t="s">
         <v>1686</v>
       </c>
@@ -24462,6 +24921,9 @@
       <c r="C528" t="s">
         <v>1697</v>
       </c>
+      <c r="D528" t="s">
+        <v>2392</v>
+      </c>
       <c r="E528" t="s">
         <v>1693</v>
       </c>
@@ -24491,6 +24953,9 @@
       <c r="C529" t="s">
         <v>1698</v>
       </c>
+      <c r="D529" t="s">
+        <v>2392</v>
+      </c>
       <c r="E529" t="s">
         <v>1693</v>
       </c>
@@ -24520,6 +24985,9 @@
       <c r="C530" t="s">
         <v>1700</v>
       </c>
+      <c r="D530" t="s">
+        <v>2392</v>
+      </c>
       <c r="E530" t="s">
         <v>1693</v>
       </c>
@@ -24645,6 +25113,9 @@
       <c r="C534" t="s">
         <v>1707</v>
       </c>
+      <c r="D534" t="s">
+        <v>2392</v>
+      </c>
       <c r="E534" t="s">
         <v>1693</v>
       </c>
@@ -24706,6 +25177,9 @@
       <c r="C536" t="s">
         <v>1711</v>
       </c>
+      <c r="D536" t="s">
+        <v>2392</v>
+      </c>
       <c r="E536" t="s">
         <v>1693</v>
       </c>
@@ -24735,6 +25209,9 @@
       <c r="C537" t="s">
         <v>1713</v>
       </c>
+      <c r="D537" t="s">
+        <v>2392</v>
+      </c>
       <c r="E537" t="s">
         <v>1714</v>
       </c>
@@ -24796,6 +25273,9 @@
       <c r="C539" t="s">
         <v>1717</v>
       </c>
+      <c r="D539" t="s">
+        <v>2392</v>
+      </c>
       <c r="E539" t="s">
         <v>1718</v>
       </c>
@@ -24921,6 +25401,9 @@
       <c r="C543" t="s">
         <v>1727</v>
       </c>
+      <c r="D543" t="s">
+        <v>2392</v>
+      </c>
       <c r="E543" t="s">
         <v>1718</v>
       </c>
@@ -24982,6 +25465,9 @@
       <c r="C545" t="s">
         <v>1730</v>
       </c>
+      <c r="D545" t="s">
+        <v>2392</v>
+      </c>
       <c r="E545" t="s">
         <v>1718</v>
       </c>
@@ -25171,6 +25657,9 @@
       <c r="C551" t="s">
         <v>1750</v>
       </c>
+      <c r="D551" t="s">
+        <v>2392</v>
+      </c>
       <c r="E551" t="s">
         <v>1718</v>
       </c>
@@ -25296,6 +25785,9 @@
       <c r="C555" t="s">
         <v>1760</v>
       </c>
+      <c r="D555" t="s">
+        <v>2392</v>
+      </c>
       <c r="E555" t="s">
         <v>1718</v>
       </c>
@@ -25389,6 +25881,9 @@
       <c r="C558" t="s">
         <v>1768</v>
       </c>
+      <c r="D558" t="s">
+        <v>2392</v>
+      </c>
       <c r="E558" t="s">
         <v>1762</v>
       </c>
@@ -25514,6 +26009,9 @@
       <c r="C562" t="s">
         <v>1775</v>
       </c>
+      <c r="D562" t="s">
+        <v>2392</v>
+      </c>
       <c r="E562" t="s">
         <v>1762</v>
       </c>
@@ -25543,6 +26041,9 @@
       <c r="C563" t="s">
         <v>1778</v>
       </c>
+      <c r="D563" t="s">
+        <v>2392</v>
+      </c>
       <c r="E563" t="s">
         <v>1762</v>
       </c>
@@ -25764,6 +26265,9 @@
       <c r="C570" t="s">
         <v>1796</v>
       </c>
+      <c r="D570" t="s">
+        <v>2392</v>
+      </c>
       <c r="E570" t="s">
         <v>1781</v>
       </c>
@@ -25793,6 +26297,9 @@
       <c r="C571" t="s">
         <v>1800</v>
       </c>
+      <c r="D571" t="s">
+        <v>2392</v>
+      </c>
       <c r="E571" t="s">
         <v>1781</v>
       </c>
@@ -26078,6 +26585,9 @@
       <c r="C580" t="s">
         <v>1817</v>
       </c>
+      <c r="D580" t="s">
+        <v>2392</v>
+      </c>
       <c r="E580" t="s">
         <v>1813</v>
       </c>
@@ -26139,6 +26649,9 @@
       <c r="C582" t="s">
         <v>1823</v>
       </c>
+      <c r="D582" t="s">
+        <v>2392</v>
+      </c>
       <c r="E582" t="s">
         <v>1822</v>
       </c>
@@ -26392,6 +26905,9 @@
       <c r="C590" t="s">
         <v>1843</v>
       </c>
+      <c r="D590" t="s">
+        <v>2392</v>
+      </c>
       <c r="E590" t="s">
         <v>1822</v>
       </c>
@@ -26453,6 +26969,9 @@
       <c r="C592" t="s">
         <v>1847</v>
       </c>
+      <c r="D592" t="s">
+        <v>2392</v>
+      </c>
       <c r="E592" t="s">
         <v>1848</v>
       </c>
@@ -26482,6 +27001,9 @@
       <c r="C593" t="s">
         <v>1851</v>
       </c>
+      <c r="D593" t="s">
+        <v>2392</v>
+      </c>
       <c r="E593" t="s">
         <v>1848</v>
       </c>
@@ -26511,6 +27033,9 @@
       <c r="C594" t="s">
         <v>1852</v>
       </c>
+      <c r="D594" t="s">
+        <v>2392</v>
+      </c>
       <c r="E594" t="s">
         <v>1848</v>
       </c>
@@ -26540,6 +27065,9 @@
       <c r="C595" t="s">
         <v>1853</v>
       </c>
+      <c r="D595" t="s">
+        <v>2392</v>
+      </c>
       <c r="E595" t="s">
         <v>1848</v>
       </c>
@@ -26601,6 +27129,9 @@
       <c r="C597" t="s">
         <v>1857</v>
       </c>
+      <c r="D597" t="s">
+        <v>2392</v>
+      </c>
       <c r="E597" t="s">
         <v>1848</v>
       </c>
@@ -26630,6 +27161,9 @@
       <c r="C598" t="s">
         <v>1860</v>
       </c>
+      <c r="D598" t="s">
+        <v>2392</v>
+      </c>
       <c r="E598" t="s">
         <v>1848</v>
       </c>
@@ -26723,6 +27257,9 @@
       <c r="C601" t="s">
         <v>1870</v>
       </c>
+      <c r="D601" t="s">
+        <v>2392</v>
+      </c>
       <c r="E601" t="s">
         <v>1867</v>
       </c>
@@ -27040,6 +27577,9 @@
       <c r="C611" t="s">
         <v>1890</v>
       </c>
+      <c r="D611" t="s">
+        <v>2392</v>
+      </c>
       <c r="E611" t="s">
         <v>1867</v>
       </c>
@@ -27133,6 +27673,9 @@
       <c r="C614" t="s">
         <v>1897</v>
       </c>
+      <c r="D614" t="s">
+        <v>2392</v>
+      </c>
       <c r="E614" t="s">
         <v>1898</v>
       </c>
@@ -27226,6 +27769,9 @@
       <c r="C617" t="s">
         <v>1904</v>
       </c>
+      <c r="D617" t="s">
+        <v>2392</v>
+      </c>
       <c r="E617" t="s">
         <v>1898</v>
       </c>
@@ -27383,6 +27929,9 @@
       <c r="C622" t="s">
         <v>1915</v>
       </c>
+      <c r="D622" t="s">
+        <v>2392</v>
+      </c>
       <c r="E622" t="s">
         <v>1898</v>
       </c>
@@ -27476,6 +28025,9 @@
       <c r="C625" t="s">
         <v>1920</v>
       </c>
+      <c r="D625" t="s">
+        <v>2392</v>
+      </c>
       <c r="E625" t="s">
         <v>1898</v>
       </c>
@@ -27505,6 +28057,9 @@
       <c r="C626" t="s">
         <v>1921</v>
       </c>
+      <c r="D626" t="s">
+        <v>2392</v>
+      </c>
       <c r="E626" t="s">
         <v>1898</v>
       </c>
@@ -27566,6 +28121,9 @@
       <c r="C628" t="s">
         <v>1927</v>
       </c>
+      <c r="D628" t="s">
+        <v>2392</v>
+      </c>
       <c r="E628" t="s">
         <v>1924</v>
       </c>
@@ -27691,6 +28249,9 @@
       <c r="C632" t="s">
         <v>1938</v>
       </c>
+      <c r="D632" t="s">
+        <v>2392</v>
+      </c>
       <c r="E632" t="s">
         <v>1939</v>
       </c>
@@ -27816,6 +28377,9 @@
       <c r="C636" t="s">
         <v>1947</v>
       </c>
+      <c r="D636" t="s">
+        <v>2392</v>
+      </c>
       <c r="E636" t="s">
         <v>1939</v>
       </c>
@@ -27877,6 +28441,9 @@
       <c r="C638" t="s">
         <v>1950</v>
       </c>
+      <c r="D638" t="s">
+        <v>2392</v>
+      </c>
       <c r="E638" t="s">
         <v>1939</v>
       </c>
@@ -27938,6 +28505,9 @@
       <c r="C640" t="s">
         <v>1956</v>
       </c>
+      <c r="D640" t="s">
+        <v>2392</v>
+      </c>
       <c r="E640" t="s">
         <v>1939</v>
       </c>
@@ -28095,6 +28665,9 @@
       <c r="C645" t="s">
         <v>1969</v>
       </c>
+      <c r="D645" t="s">
+        <v>2392</v>
+      </c>
       <c r="E645" t="s">
         <v>1967</v>
       </c>
@@ -28156,6 +28729,9 @@
       <c r="C647" t="s">
         <v>1973</v>
       </c>
+      <c r="D647" t="s">
+        <v>2392</v>
+      </c>
       <c r="E647" t="s">
         <v>1967</v>
       </c>
@@ -28217,6 +28793,9 @@
       <c r="C649" t="s">
         <v>1976</v>
       </c>
+      <c r="D649" t="s">
+        <v>2392</v>
+      </c>
       <c r="E649" t="s">
         <v>1977</v>
       </c>
@@ -28310,6 +28889,9 @@
       <c r="C652" t="s">
         <v>1985</v>
       </c>
+      <c r="D652" t="s">
+        <v>2392</v>
+      </c>
       <c r="E652" t="s">
         <v>1977</v>
       </c>
@@ -28467,6 +29049,9 @@
       <c r="C657" t="s">
         <v>1997</v>
       </c>
+      <c r="D657" t="s">
+        <v>2392</v>
+      </c>
       <c r="E657" t="s">
         <v>1977</v>
       </c>
@@ -28816,6 +29401,9 @@
       <c r="C668" t="s">
         <v>2026</v>
       </c>
+      <c r="D668" t="s">
+        <v>2392</v>
+      </c>
       <c r="E668" t="s">
         <v>1977</v>
       </c>
@@ -28845,6 +29433,9 @@
       <c r="C669" t="s">
         <v>2028</v>
       </c>
+      <c r="D669" t="s">
+        <v>2392</v>
+      </c>
       <c r="E669" t="s">
         <v>2029</v>
       </c>
@@ -28938,6 +29529,9 @@
       <c r="C672" t="s">
         <v>2038</v>
       </c>
+      <c r="D672" t="s">
+        <v>2392</v>
+      </c>
       <c r="E672" t="s">
         <v>2029</v>
       </c>
@@ -28967,6 +29561,9 @@
       <c r="C673" t="s">
         <v>2039</v>
       </c>
+      <c r="D673" t="s">
+        <v>2392</v>
+      </c>
       <c r="E673" t="s">
         <v>178</v>
       </c>
@@ -29156,6 +29753,9 @@
       <c r="C679" t="s">
         <v>2053</v>
       </c>
+      <c r="D679" t="s">
+        <v>2392</v>
+      </c>
       <c r="E679" t="s">
         <v>178</v>
       </c>
@@ -29217,6 +29817,9 @@
       <c r="C681" t="s">
         <v>2058</v>
       </c>
+      <c r="D681" t="s">
+        <v>2392</v>
+      </c>
       <c r="E681" t="s">
         <v>2059</v>
       </c>
@@ -29246,6 +29849,9 @@
       <c r="C682" t="s">
         <v>2061</v>
       </c>
+      <c r="D682" t="s">
+        <v>2392</v>
+      </c>
       <c r="E682" t="s">
         <v>2059</v>
       </c>
@@ -29275,6 +29881,9 @@
       <c r="C683" t="s">
         <v>2062</v>
       </c>
+      <c r="D683" t="s">
+        <v>2392</v>
+      </c>
       <c r="E683" t="s">
         <v>2059</v>
       </c>
@@ -29368,6 +29977,9 @@
       <c r="C686" t="s">
         <v>2066</v>
       </c>
+      <c r="D686" t="s">
+        <v>2392</v>
+      </c>
       <c r="E686" t="s">
         <v>2059</v>
       </c>
@@ -29429,6 +30041,9 @@
       <c r="C688" t="s">
         <v>2073</v>
       </c>
+      <c r="D688" t="s">
+        <v>2392</v>
+      </c>
       <c r="E688" t="s">
         <v>2070</v>
       </c>
@@ -29458,6 +30073,9 @@
       <c r="C689" t="s">
         <v>2075</v>
       </c>
+      <c r="D689" t="s">
+        <v>2392</v>
+      </c>
       <c r="E689" t="s">
         <v>2070</v>
       </c>
@@ -29583,6 +30201,9 @@
       <c r="C693" t="s">
         <v>2083</v>
       </c>
+      <c r="D693" t="s">
+        <v>2392</v>
+      </c>
       <c r="E693" t="s">
         <v>2070</v>
       </c>
@@ -29740,6 +30361,9 @@
       <c r="C698" t="s">
         <v>2094</v>
       </c>
+      <c r="D698" t="s">
+        <v>2392</v>
+      </c>
       <c r="E698" t="s">
         <v>2070</v>
       </c>
@@ -29801,6 +30425,9 @@
       <c r="C700" t="s">
         <v>2098</v>
       </c>
+      <c r="D700" t="s">
+        <v>2392</v>
+      </c>
       <c r="E700" t="s">
         <v>2070</v>
       </c>
@@ -29958,6 +30585,9 @@
       <c r="C705" t="s">
         <v>2110</v>
       </c>
+      <c r="D705" t="s">
+        <v>2392</v>
+      </c>
       <c r="E705" t="s">
         <v>2070</v>
       </c>
@@ -30019,6 +30649,9 @@
       <c r="C707" t="s">
         <v>2113</v>
       </c>
+      <c r="D707" t="s">
+        <v>2392</v>
+      </c>
       <c r="E707" t="s">
         <v>2070</v>
       </c>
@@ -30144,6 +30777,9 @@
       <c r="C711" t="s">
         <v>2124</v>
       </c>
+      <c r="D711" t="s">
+        <v>2392</v>
+      </c>
       <c r="E711" t="s">
         <v>2119</v>
       </c>
@@ -30237,6 +30873,9 @@
       <c r="C714" t="s">
         <v>2129</v>
       </c>
+      <c r="D714" t="s">
+        <v>2392</v>
+      </c>
       <c r="E714" t="s">
         <v>2119</v>
       </c>
@@ -30298,6 +30937,9 @@
       <c r="C716" t="s">
         <v>2134</v>
       </c>
+      <c r="D716" t="s">
+        <v>2392</v>
+      </c>
       <c r="E716" t="s">
         <v>2119</v>
       </c>
@@ -30327,6 +30969,9 @@
       <c r="C717" t="s">
         <v>2136</v>
       </c>
+      <c r="D717" t="s">
+        <v>2392</v>
+      </c>
       <c r="E717" t="s">
         <v>2119</v>
       </c>
@@ -30420,6 +31065,9 @@
       <c r="C720" t="s">
         <v>2144</v>
       </c>
+      <c r="D720" t="s">
+        <v>2392</v>
+      </c>
       <c r="E720" t="s">
         <v>2139</v>
       </c>
@@ -30577,6 +31225,9 @@
       <c r="C725" t="s">
         <v>2153</v>
       </c>
+      <c r="D725" t="s">
+        <v>2392</v>
+      </c>
       <c r="E725" t="s">
         <v>2139</v>
       </c>
@@ -30734,6 +31385,9 @@
       <c r="C730" t="s">
         <v>2165</v>
       </c>
+      <c r="D730" t="s">
+        <v>2392</v>
+      </c>
       <c r="E730" t="s">
         <v>2139</v>
       </c>
@@ -30859,6 +31513,9 @@
       <c r="C734" t="s">
         <v>2174</v>
       </c>
+      <c r="D734" t="s">
+        <v>2392</v>
+      </c>
       <c r="E734" t="s">
         <v>2139</v>
       </c>
@@ -30984,6 +31641,9 @@
       <c r="C738" t="s">
         <v>2185</v>
       </c>
+      <c r="D738" t="s">
+        <v>2392</v>
+      </c>
       <c r="E738" t="s">
         <v>2183</v>
       </c>
@@ -31109,6 +31769,9 @@
       <c r="C742" t="s">
         <v>2194</v>
       </c>
+      <c r="D742" t="s">
+        <v>2392</v>
+      </c>
       <c r="E742" t="s">
         <v>2183</v>
       </c>
@@ -31362,6 +32025,9 @@
       <c r="C750" t="s">
         <v>2214</v>
       </c>
+      <c r="D750" t="s">
+        <v>2392</v>
+      </c>
       <c r="E750" t="s">
         <v>2196</v>
       </c>
@@ -31423,6 +32089,9 @@
       <c r="C752" t="s">
         <v>2219</v>
       </c>
+      <c r="D752" t="s">
+        <v>2392</v>
+      </c>
       <c r="E752" t="s">
         <v>2196</v>
       </c>
@@ -31452,6 +32121,9 @@
       <c r="C753" t="s">
         <v>2220</v>
       </c>
+      <c r="D753" t="s">
+        <v>2392</v>
+      </c>
       <c r="E753" t="s">
         <v>2196</v>
       </c>
@@ -31705,6 +32377,9 @@
       <c r="C761" t="s">
         <v>2237</v>
       </c>
+      <c r="D761" t="s">
+        <v>2392</v>
+      </c>
       <c r="E761" t="s">
         <v>2196</v>
       </c>
@@ -31766,6 +32441,9 @@
       <c r="C763" t="s">
         <v>2240</v>
       </c>
+      <c r="D763" t="s">
+        <v>2392</v>
+      </c>
       <c r="E763" t="s">
         <v>2196</v>
       </c>
@@ -31795,6 +32473,9 @@
       <c r="C764" t="s">
         <v>2241</v>
       </c>
+      <c r="D764" t="s">
+        <v>2392</v>
+      </c>
       <c r="E764" t="s">
         <v>2196</v>
       </c>
@@ -31856,6 +32537,9 @@
       <c r="C766" t="s">
         <v>2244</v>
       </c>
+      <c r="D766" t="s">
+        <v>2392</v>
+      </c>
       <c r="E766" t="s">
         <v>2196</v>
       </c>
@@ -31917,6 +32601,9 @@
       <c r="C768" t="s">
         <v>2248</v>
       </c>
+      <c r="D768" t="s">
+        <v>2392</v>
+      </c>
       <c r="E768" t="s">
         <v>2196</v>
       </c>
@@ -31946,6 +32633,9 @@
       <c r="C769" t="s">
         <v>2251</v>
       </c>
+      <c r="D769" t="s">
+        <v>2392</v>
+      </c>
       <c r="E769" t="s">
         <v>2252</v>
       </c>
@@ -32103,6 +32793,9 @@
       <c r="C774" t="s">
         <v>2263</v>
       </c>
+      <c r="D774" t="s">
+        <v>2392</v>
+      </c>
       <c r="E774" t="s">
         <v>2261</v>
       </c>
@@ -32164,6 +32857,9 @@
       <c r="C776" t="s">
         <v>2267</v>
       </c>
+      <c r="D776" t="s">
+        <v>2392</v>
+      </c>
       <c r="E776" t="s">
         <v>2261</v>
       </c>
@@ -32353,6 +33049,9 @@
       <c r="C782" t="s">
         <v>2281</v>
       </c>
+      <c r="D782" t="s">
+        <v>2392</v>
+      </c>
       <c r="E782" t="s">
         <v>2261</v>
       </c>
@@ -32382,6 +33081,9 @@
       <c r="C783" t="s">
         <v>2283</v>
       </c>
+      <c r="D783" t="s">
+        <v>2392</v>
+      </c>
       <c r="E783" t="s">
         <v>2261</v>
       </c>
@@ -32635,6 +33337,9 @@
       <c r="C791" t="s">
         <v>2305</v>
       </c>
+      <c r="D791" t="s">
+        <v>2392</v>
+      </c>
       <c r="E791" t="s">
         <v>2261</v>
       </c>
@@ -32824,6 +33529,9 @@
       <c r="C797" t="s">
         <v>2316</v>
       </c>
+      <c r="D797" t="s">
+        <v>2392</v>
+      </c>
       <c r="E797" t="s">
         <v>2317</v>
       </c>
@@ -32853,6 +33561,9 @@
       <c r="C798" t="s">
         <v>2318</v>
       </c>
+      <c r="D798" t="s">
+        <v>2392</v>
+      </c>
       <c r="E798" t="s">
         <v>2317</v>
       </c>
@@ -32882,6 +33593,9 @@
       <c r="C799" t="s">
         <v>2320</v>
       </c>
+      <c r="D799" t="s">
+        <v>2392</v>
+      </c>
       <c r="E799" t="s">
         <v>2317</v>
       </c>
@@ -33039,6 +33753,9 @@
       <c r="C804" t="s">
         <v>2331</v>
       </c>
+      <c r="D804" t="s">
+        <v>2392</v>
+      </c>
       <c r="E804" t="s">
         <v>2317</v>
       </c>
@@ -33132,6 +33849,9 @@
       <c r="C807" t="s">
         <v>2339</v>
       </c>
+      <c r="D807" t="s">
+        <v>2392</v>
+      </c>
       <c r="E807" t="s">
         <v>2334</v>
       </c>
@@ -33257,6 +33977,9 @@
       <c r="C811" t="s">
         <v>2349</v>
       </c>
+      <c r="D811" t="s">
+        <v>2392</v>
+      </c>
       <c r="E811" t="s">
         <v>2334</v>
       </c>
@@ -33286,6 +34009,9 @@
       <c r="C812" t="s">
         <v>2351</v>
       </c>
+      <c r="D812" t="s">
+        <v>2392</v>
+      </c>
       <c r="E812" t="s">
         <v>2334</v>
       </c>
@@ -33347,6 +34073,9 @@
       <c r="C814" t="s">
         <v>2354</v>
       </c>
+      <c r="D814" t="s">
+        <v>2392</v>
+      </c>
       <c r="E814" t="s">
         <v>2334</v>
       </c>
@@ -33440,6 +34169,9 @@
       <c r="C817" t="s">
         <v>2360</v>
       </c>
+      <c r="D817" t="s">
+        <v>2392</v>
+      </c>
       <c r="E817" t="s">
         <v>2334</v>
       </c>
@@ -33565,6 +34297,9 @@
       <c r="C821" t="s">
         <v>2370</v>
       </c>
+      <c r="D821" t="s">
+        <v>2392</v>
+      </c>
       <c r="E821" t="s">
         <v>2369</v>
       </c>
@@ -33690,6 +34425,9 @@
       <c r="C825" t="s">
         <v>2377</v>
       </c>
+      <c r="D825" t="s">
+        <v>2392</v>
+      </c>
       <c r="E825" t="s">
         <v>2369</v>
       </c>
@@ -33719,6 +34457,9 @@
       <c r="C826" t="s">
         <v>2379</v>
       </c>
+      <c r="D826" t="s">
+        <v>2392</v>
+      </c>
       <c r="E826" t="s">
         <v>2369</v>
       </c>
@@ -33780,6 +34521,9 @@
       <c r="C828" t="s">
         <v>2384</v>
       </c>
+      <c r="D828" t="s">
+        <v>2392</v>
+      </c>
       <c r="E828" t="s">
         <v>2369</v>
       </c>
@@ -33840,6 +34584,9 @@
       </c>
       <c r="C830" t="s">
         <v>2388</v>
+      </c>
+      <c r="D830" t="s">
+        <v>2392</v>
       </c>
       <c r="E830" t="s">
         <v>2369</v>
